--- a/testdata/Smoke_WEB_MED_098_NEWREPORT_02.xlsx
+++ b/testdata/Smoke_WEB_MED_098_NEWREPORT_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C105F6A-EC11-4376-BD36-F64A6F8AC41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64BE717-4B7D-4F27-89B5-866BA032106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="60" windowWidth="13760" windowHeight="9640" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="470" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="183">
   <si>
     <t>User</t>
   </si>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>預期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>羅馬拼音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,10 +392,6 @@
   </si>
   <si>
     <t>疾病名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPECT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -740,10 +732,6 @@
   </si>
   <si>
     <t>家管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -823,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -849,12 +837,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,73 +1167,72 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A71B8D-93C4-4E3E-ABF8-78CB141697D7}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:BO5"/>
+  <dimension ref="A1:BN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BN5" sqref="BN5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.796875" customWidth="1"/>
-    <col min="18" max="18" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="42.19921875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.3984375" customWidth="1"/>
-    <col min="30" max="30" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.3984375" customWidth="1"/>
-    <col min="33" max="33" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.09765625" customWidth="1"/>
-    <col min="36" max="36" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26" bestFit="1" customWidth="1"/>
-    <col min="39" max="44" width="26" customWidth="1"/>
-    <col min="45" max="46" width="9.59765625" customWidth="1"/>
-    <col min="47" max="47" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="22.19921875" customWidth="1"/>
-    <col min="54" max="54" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="22.19921875" customWidth="1"/>
-    <col min="58" max="58" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="32.59765625" customWidth="1"/>
-    <col min="61" max="61" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="31" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.296875" customWidth="1"/>
-    <col min="67" max="67" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.796875" customWidth="1"/>
+    <col min="17" max="17" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="42.19921875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.3984375" customWidth="1"/>
+    <col min="29" max="29" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.3984375" customWidth="1"/>
+    <col min="32" max="32" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.09765625" customWidth="1"/>
+    <col min="35" max="35" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26" bestFit="1" customWidth="1"/>
+    <col min="38" max="43" width="26" customWidth="1"/>
+    <col min="44" max="45" width="9.59765625" customWidth="1"/>
+    <col min="46" max="46" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="22.19921875" customWidth="1"/>
+    <col min="53" max="53" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="22.19921875" customWidth="1"/>
+    <col min="57" max="57" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="32.59765625" customWidth="1"/>
+    <col min="60" max="60" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="31" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22.296875" customWidth="1"/>
+    <col min="66" max="66" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>56</v>
       </c>
@@ -1259,136 +1240,136 @@
         <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="AL1" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AN1" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AU1" s="4" t="s">
         <v>77</v>
@@ -1397,72 +1378,69 @@
         <v>78</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="AX1" s="4" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="BD1" s="4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="BF1" s="4" t="s">
         <v>113</v>
       </c>
       <c r="BG1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BH1" s="4" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="BI1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BJ1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="BM1" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="BN1" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>92</v>
-      </c>
     </row>
-    <row r="2" spans="1:67" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1470,424 +1448,418 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="O2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="W2" s="4" t="s">
+      <c r="BM2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="BO2" s="4"/>
+      <c r="BN2" s="4"/>
     </row>
-    <row r="3" spans="1:67" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>170</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="AB3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="AH3" s="4" t="s">
         <v>139</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AL3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="AX3" s="4" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AZ3" s="4" t="s">
         <v>94</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="BD3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BH3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="BE3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="BI3" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="BJ3" s="4" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BL3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BM3" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="BN3" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="BO3" s="4" t="s">
-        <v>103</v>
-      </c>
     </row>
-    <row r="4" spans="1:67" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="4">
+        <v>180</v>
+      </c>
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>168</v>
+      <c r="D4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K4" s="4">
+        <v>54321</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="K4" s="4">
-        <v>12345</v>
-      </c>
-      <c r="L4" s="4">
-        <v>54321</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>-10</v>
+      </c>
+      <c r="S4" s="4">
+        <v>-9</v>
+      </c>
+      <c r="T4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="X4" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="O4" s="4" t="b">
+      <c r="Z4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="T4" s="4">
-        <v>-9</v>
-      </c>
-      <c r="U4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA4" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -1924,85 +1896,82 @@
       <c r="BI4" s="4"/>
       <c r="BJ4" s="4"/>
       <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="7" t="b">
+      <c r="BL4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="BN4" s="7"/>
-      <c r="BO4" s="4"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="4"/>
     </row>
-    <row r="5" spans="1:67" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="4">
+        <v>182</v>
+      </c>
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>168</v>
+      <c r="D5" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K5" s="4">
+        <v>54321</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="4">
-        <v>12345</v>
-      </c>
-      <c r="L5" s="4">
-        <v>54321</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="4" t="b">
+      <c r="N5" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4" t="b">
+      <c r="Q5" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="R5" s="4">
+        <v>-10</v>
+      </c>
       <c r="S5" s="4">
-        <v>-10</v>
-      </c>
-      <c r="T5" s="4">
         <v>-9</v>
       </c>
-      <c r="U5" s="4" t="b">
+      <c r="T5" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4">
+      <c r="X5" s="4">
         <v>2</v>
       </c>
-      <c r="Z5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA5" s="4" t="b">
+      <c r="Y5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z5" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -2039,14 +2008,13 @@
       <c r="BI5" s="4"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
-      <c r="BL5" s="4"/>
-      <c r="BM5" s="7" t="b">
+      <c r="BL5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="BN5" s="7">
+      <c r="BM5" s="7">
         <v>-8</v>
       </c>
-      <c r="BO5" s="4"/>
+      <c r="BN5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
